--- a/Prototypes/Lucerne/RootN.xlsx
+++ b/Prototypes/Lucerne/RootN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APSIMX2\Prototypes\Lucerne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1CA3D9-06DC-435E-9BD3-276CEC1F6FCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AF100-F5DA-46EE-871D-F953C47180D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="13">
   <si>
     <t>Iversen_91DefoliationLS</t>
   </si>
@@ -61,11 +61,22 @@
     <t>Iversen_91DefoliationSL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>StemN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeafN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,19 +1025,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1047,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1065,7 @@
         <v>1.693333333</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>1.637573333</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>1.2909999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>1.1254999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1131,7 @@
         <v>1.165333333</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>1.127666667</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>1.350333333</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>1.6366666670000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1175,7 @@
         <v>1.3572</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>1.2081599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>1.2352799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>1.1528</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>1.658833333</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +1780,7 @@
         <v>1.6918333329999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1791,7 @@
         <v>1.606666667</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1802,7 @@
         <v>1.69306</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1813,7 @@
         <v>1.39584</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1824,7 @@
         <v>1.22072</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1835,7 @@
         <v>1.31792</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1846,7 @@
         <v>1.1897599999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1868,7 @@
         <v>1.5049999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +1879,7 @@
         <v>1.5344800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1890,7 @@
         <v>1.4130400000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>1.8391999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1893,10 +1910,1220 @@
       </c>
       <c r="C79">
         <v>1.6504324340000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1">
+        <v>37529</v>
+      </c>
+      <c r="D80">
+        <v>2.7922666669999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
+        <v>37571</v>
+      </c>
+      <c r="D81">
+        <v>2.6988266670000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1">
+        <v>37613</v>
+      </c>
+      <c r="D82">
+        <v>1.6502399999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1">
+        <v>37655</v>
+      </c>
+      <c r="D83">
+        <v>1.538226423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1">
+        <v>37697</v>
+      </c>
+      <c r="D84">
+        <v>2.0609136509999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1">
+        <v>37739</v>
+      </c>
+      <c r="D85">
+        <v>2.6579238959999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
+        <v>37777</v>
+      </c>
+      <c r="D86">
+        <v>4.7254516559999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
+        <v>37865</v>
+      </c>
+      <c r="D87">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>37872</v>
+      </c>
+      <c r="D88">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1">
+        <v>37894</v>
+      </c>
+      <c r="D89">
+        <v>2.7659216639999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
+        <v>37934</v>
+      </c>
+      <c r="D90">
+        <v>2.3028982920000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>37978</v>
+      </c>
+      <c r="D91">
+        <v>1.6847394600000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
+        <v>38020</v>
+      </c>
+      <c r="D92">
+        <v>1.8827905680000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="1">
+        <v>38033</v>
+      </c>
+      <c r="D93">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="1">
+        <v>38040</v>
+      </c>
+      <c r="D94">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1">
+        <v>38054</v>
+      </c>
+      <c r="D95">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1">
+        <v>38062</v>
+      </c>
+      <c r="D96">
+        <v>1.806601372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="1">
+        <v>38104</v>
+      </c>
+      <c r="D97">
+        <v>3.437266234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="1">
+        <v>38118</v>
+      </c>
+      <c r="D98">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1">
+        <v>38128</v>
+      </c>
+      <c r="D99">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1">
+        <v>38138</v>
+      </c>
+      <c r="D100">
+        <v>4.6927200320000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="1">
+        <v>38147</v>
+      </c>
+      <c r="D101">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="1">
+        <v>37529</v>
+      </c>
+      <c r="E102">
+        <v>5.56576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1">
+        <v>37571</v>
+      </c>
+      <c r="E103">
+        <v>5.6246400000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1">
+        <v>37613</v>
+      </c>
+      <c r="E104">
+        <v>4.9970879999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="1">
+        <v>37655</v>
+      </c>
+      <c r="E105">
+        <v>4.6353639690000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="1">
+        <v>37697</v>
+      </c>
+      <c r="E106">
+        <v>5.0393434480000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <v>37739</v>
+      </c>
+      <c r="E107">
+        <v>5.2879784939999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <v>37777</v>
+      </c>
+      <c r="E108">
+        <v>5.9277734400000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1">
+        <v>37865</v>
+      </c>
+      <c r="E109">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1">
+        <v>37872</v>
+      </c>
+      <c r="E110">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1">
+        <v>37894</v>
+      </c>
+      <c r="E111">
+        <v>5.497389224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1">
+        <v>37934</v>
+      </c>
+      <c r="E112">
+        <v>5.2421559880000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1">
+        <v>37978</v>
+      </c>
+      <c r="E113">
+        <v>4.9871992479999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1">
+        <v>38020</v>
+      </c>
+      <c r="E114">
+        <v>5.244282836</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1">
+        <v>38033</v>
+      </c>
+      <c r="E115">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1">
+        <v>38040</v>
+      </c>
+      <c r="E116">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1">
+        <v>38054</v>
+      </c>
+      <c r="E117">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1">
+        <v>38062</v>
+      </c>
+      <c r="E118">
+        <v>5.1104421999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1">
+        <v>38104</v>
+      </c>
+      <c r="E119">
+        <v>5.7387889080000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="1">
+        <v>38118</v>
+      </c>
+      <c r="E120">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1">
+        <v>38128</v>
+      </c>
+      <c r="E121">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="1">
+        <v>38138</v>
+      </c>
+      <c r="E122">
+        <v>6.3024655120000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="1">
+        <v>38147</v>
+      </c>
+      <c r="E123">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1">
+        <v>37543</v>
+      </c>
+      <c r="D124">
+        <v>3.9548800000000002</v>
+      </c>
+      <c r="E124">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>37569</v>
+      </c>
+      <c r="D125">
+        <v>3.4017599999999999</v>
+      </c>
+      <c r="E125">
+        <v>5.7265600000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1">
+        <v>37597</v>
+      </c>
+      <c r="D126">
+        <v>2.8191466670000001</v>
+      </c>
+      <c r="E126">
+        <v>5.93248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1">
+        <v>37613</v>
+      </c>
+      <c r="D127">
+        <v>3.3</v>
+      </c>
+      <c r="E127">
+        <v>6.0968</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1">
+        <v>37625</v>
+      </c>
+      <c r="D128">
+        <v>2.3464533329999999</v>
+      </c>
+      <c r="E128">
+        <v>5.5891200000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1">
+        <v>37655</v>
+      </c>
+      <c r="D129">
+        <v>2.448941864</v>
+      </c>
+      <c r="E129">
+        <v>5.351857152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1">
+        <v>37683</v>
+      </c>
+      <c r="D130">
+        <v>3.1796875170000001</v>
+      </c>
+      <c r="E130">
+        <v>5.8092266669999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1">
+        <v>37711</v>
+      </c>
+      <c r="D131">
+        <v>3.2261294029999998</v>
+      </c>
+      <c r="E131">
+        <v>5.9577881890000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <v>37739</v>
+      </c>
+      <c r="D132">
+        <v>4.7762757239999996</v>
+      </c>
+      <c r="E132">
+        <v>5.8980988490000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1">
+        <v>37777</v>
+      </c>
+      <c r="D133">
+        <v>4.532768248</v>
+      </c>
+      <c r="E133">
+        <v>5.958578792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1">
+        <v>37865</v>
+      </c>
+      <c r="D134">
+        <v>3.5</v>
+      </c>
+      <c r="E134">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1">
+        <v>37872</v>
+      </c>
+      <c r="D135">
+        <v>4.3</v>
+      </c>
+      <c r="E135">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1">
+        <v>37878</v>
+      </c>
+      <c r="D136">
+        <v>4.2795812959999999</v>
+      </c>
+      <c r="E136">
+        <v>5.761630856</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>37905</v>
+      </c>
+      <c r="D137">
+        <v>5.0380967679999999</v>
+      </c>
+      <c r="E137">
+        <v>5.7307870479999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <v>37934</v>
+      </c>
+      <c r="D138">
+        <v>3.1168893440000001</v>
+      </c>
+      <c r="E138">
+        <v>5.3654676800000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <v>37962</v>
+      </c>
+      <c r="D139">
+        <v>2.631491928</v>
+      </c>
+      <c r="E139">
+        <v>5.5863449080000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>37990</v>
+      </c>
+      <c r="D140">
+        <v>1.91873318</v>
+      </c>
+      <c r="E140">
+        <v>5.1339361559999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1">
+        <v>38020</v>
+      </c>
+      <c r="D141">
+        <v>2.3269509080000002</v>
+      </c>
+      <c r="E141">
+        <v>5.5776443479999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1">
+        <v>38033</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1">
+        <v>38040</v>
+      </c>
+      <c r="D143">
+        <v>3.7</v>
+      </c>
+      <c r="E143">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1">
+        <v>38048</v>
+      </c>
+      <c r="D144">
+        <v>3.089831899</v>
+      </c>
+      <c r="E144">
+        <v>6.1256659950000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1">
+        <v>38065</v>
+      </c>
+      <c r="D145">
+        <v>1.9</v>
+      </c>
+      <c r="E145">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1">
+        <v>38076</v>
+      </c>
+      <c r="D146">
+        <v>3.6680234519999999</v>
+      </c>
+      <c r="E146">
+        <v>5.6392477440000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1">
+        <v>38104</v>
+      </c>
+      <c r="D147">
+        <v>4.4510691839999996</v>
+      </c>
+      <c r="E147">
+        <v>6.1573983759999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1">
+        <v>38118</v>
+      </c>
+      <c r="D148">
+        <v>3.7</v>
+      </c>
+      <c r="E148">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1">
+        <v>38128</v>
+      </c>
+      <c r="D149">
+        <v>3.9</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1">
+        <v>38138</v>
+      </c>
+      <c r="D150">
+        <v>4.590894928</v>
+      </c>
+      <c r="E150">
+        <v>5.8274996960000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1">
+        <v>38147</v>
+      </c>
+      <c r="D151">
+        <v>4.2</v>
+      </c>
+      <c r="E151">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>37683</v>
+      </c>
+      <c r="D152">
+        <v>2.4881504080000001</v>
+      </c>
+      <c r="E152">
+        <v>6.5665524319999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1">
+        <v>37711</v>
+      </c>
+      <c r="D153">
+        <v>3.1206552639999998</v>
+      </c>
+      <c r="E153">
+        <v>5.7752777120000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1">
+        <v>37739</v>
+      </c>
+      <c r="D154">
+        <v>4.7014798000000004</v>
+      </c>
+      <c r="E154">
+        <v>6.8693600400000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1">
+        <v>37777</v>
+      </c>
+      <c r="D155">
+        <v>4.5675436400000002</v>
+      </c>
+      <c r="E155">
+        <v>5.4111395279999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1">
+        <v>37894</v>
+      </c>
+      <c r="D156">
+        <v>2.9593186920000001</v>
+      </c>
+      <c r="E156">
+        <v>5.2573889920000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1">
+        <v>37934</v>
+      </c>
+      <c r="D157">
+        <v>2.3605668639999999</v>
+      </c>
+      <c r="E157">
+        <v>5.5481840519999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1">
+        <v>37978</v>
+      </c>
+      <c r="D158">
+        <v>1.749017104</v>
+      </c>
+      <c r="E158">
+        <v>4.655010528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>38020</v>
+      </c>
+      <c r="D159">
+        <v>1.7252966320000001</v>
+      </c>
+      <c r="E159">
+        <v>4.9282999439999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="1">
+        <v>38048</v>
+      </c>
+      <c r="D160">
+        <v>2.6266825119999999</v>
+      </c>
+      <c r="E160">
+        <v>6.0292317200000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1">
+        <v>38076</v>
+      </c>
+      <c r="D161">
+        <v>3.2092182880000002</v>
+      </c>
+      <c r="E161">
+        <v>5.7978266879999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>38104</v>
+      </c>
+      <c r="D162">
+        <v>4.5555822800000003</v>
+      </c>
+      <c r="E162">
+        <v>6.7579000799999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1">
+        <v>38138</v>
+      </c>
+      <c r="D163">
+        <v>4.5459356719999997</v>
+      </c>
+      <c r="E163">
+        <v>5.710471192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1">
+        <v>37697</v>
+      </c>
+      <c r="D164">
+        <v>2.3387362860000001</v>
+      </c>
+      <c r="E164">
+        <v>5.4818722510000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1">
+        <v>37739</v>
+      </c>
+      <c r="D165">
+        <v>3.1599256960000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1">
+        <v>37777</v>
+      </c>
+      <c r="D166">
+        <v>4.5822142079999999</v>
+      </c>
+      <c r="E166">
+        <v>5.5744912720000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1">
+        <v>37878</v>
+      </c>
+      <c r="D167">
+        <v>4.2562995920000004</v>
+      </c>
+      <c r="E167">
+        <v>5.5319976879999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="1">
+        <v>37905</v>
+      </c>
+      <c r="D168">
+        <v>4.7848443679999999</v>
+      </c>
+      <c r="E168">
+        <v>5.7160790959999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1">
+        <v>37934</v>
+      </c>
+      <c r="D169">
+        <v>3.221668556</v>
+      </c>
+      <c r="E169">
+        <v>5.3714294479999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1">
+        <v>37962</v>
+      </c>
+      <c r="D170">
+        <v>2.6922532640000001</v>
+      </c>
+      <c r="E170">
+        <v>5.4424385080000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1">
+        <v>37990</v>
+      </c>
+      <c r="D171">
+        <v>1.883670044</v>
+      </c>
+      <c r="E171">
+        <v>4.7892704840000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1">
+        <v>38020</v>
+      </c>
+      <c r="D172">
+        <v>2.4919768520000001</v>
+      </c>
+      <c r="E172">
+        <v>5.6499043320000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1">
+        <v>38062</v>
+      </c>
+      <c r="D173">
+        <v>2.2404357880000001</v>
+      </c>
+      <c r="E173">
+        <v>5.300045624</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1">
+        <v>38104</v>
+      </c>
+      <c r="D174">
+        <v>3.6672610479999999</v>
+      </c>
+      <c r="E174">
+        <v>5.7703045680000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1">
+        <v>38138</v>
+      </c>
+      <c r="D175">
+        <v>4.8580374160000002</v>
+      </c>
+      <c r="E175">
+        <v>6.454682</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototypes/Lucerne/RootN.xlsx
+++ b/Prototypes/Lucerne/RootN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APSIMX2\Prototypes\Lucerne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC174D6-1A77-4553-A782-8138FAF0FCFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1748B39-3C0A-4BD0-9CBE-5A99658D23B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="42">
   <si>
     <t>Iversen_91DefoliationLS</t>
   </si>
@@ -187,30 +187,6 @@
     <t>Iversen_121DefoliationHHFDFD10</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>LAI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAIerror</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iversen_9SowingDateSD4Waterirr</t>
-  </si>
-  <si>
-    <t>Iversen_9SowingDateSD3Waterirr</t>
-  </si>
-  <si>
-    <t>Iversen_9SowingDateSD2Waterirr</t>
-  </si>
-  <si>
-    <t>Iversen_9SowingDateSD1Waterirr</t>
-  </si>
-  <si>
-    <t>Iversen_9SowingDateSD1Waterirr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -219,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,12 +354,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -811,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,12 +795,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1187,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I1102"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1090" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B997" sqref="B997"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K998" sqref="K998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1166,7 @@
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1224,14 +1188,8 @@
       <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1200,7 @@
         <v>1.693333333</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1211,7 @@
         <v>1.637573333</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1222,7 @@
         <v>1.2909999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1233,7 @@
         <v>1.1254999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1244,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1255,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1266,7 @@
         <v>1.165333333</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1277,7 @@
         <v>1.127666667</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1288,7 @@
         <v>1.350333333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1299,7 @@
         <v>1.6366666670000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1310,7 @@
         <v>1.3572</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1321,7 @@
         <v>1.2081599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1332,7 @@
         <v>1.2352799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1343,7 @@
         <v>1.1528</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -12350,7 +12308,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>6</v>
       </c>
@@ -12362,7 +12320,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>6</v>
       </c>
@@ -12374,7 +12332,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>6</v>
       </c>
@@ -12386,7 +12344,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>6</v>
       </c>
@@ -12398,7 +12356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>6</v>
       </c>
@@ -12410,7 +12368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>6</v>
       </c>
@@ -12422,7 +12380,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>6</v>
       </c>
@@ -12432,1448 +12390,6 @@
       <c r="C999" s="5"/>
       <c r="G999">
         <v>773</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1000" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1000" s="7">
-        <v>36888</v>
-      </c>
-      <c r="H1000" s="6">
-        <v>1.83</v>
-      </c>
-      <c r="I1000" s="6">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1001" s="7">
-        <v>36897</v>
-      </c>
-      <c r="H1001" s="6">
-        <v>3.54</v>
-      </c>
-      <c r="I1001" s="6">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1002" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1002" s="7">
-        <v>36907</v>
-      </c>
-      <c r="H1002" s="6">
-        <v>4.58</v>
-      </c>
-      <c r="I1002" s="6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1003" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1003" s="7">
-        <v>36924</v>
-      </c>
-      <c r="H1003" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I1003" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1004" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1004" s="7">
-        <v>36932</v>
-      </c>
-      <c r="H1004" s="6">
-        <v>2.94</v>
-      </c>
-      <c r="I1004" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1005" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1005" s="7">
-        <v>36940</v>
-      </c>
-      <c r="H1005" s="6">
-        <v>4.82</v>
-      </c>
-      <c r="I1005" s="6">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1006" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1006" s="7">
-        <v>36944</v>
-      </c>
-      <c r="H1006" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="I1006" s="6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1007" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1007" s="7">
-        <v>36948</v>
-      </c>
-      <c r="H1007" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="I1007" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1008" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1008" s="7">
-        <v>36952</v>
-      </c>
-      <c r="H1008" s="6">
-        <v>6.47</v>
-      </c>
-      <c r="I1008" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1009" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1009" s="7">
-        <v>36964</v>
-      </c>
-      <c r="H1009" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="I1009" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1010" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1010" s="7">
-        <v>36972</v>
-      </c>
-      <c r="H1010" s="6">
-        <v>2.72</v>
-      </c>
-      <c r="I1010" s="6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1011" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1011" s="7">
-        <v>36983</v>
-      </c>
-      <c r="H1011" s="6">
-        <v>4.88</v>
-      </c>
-      <c r="I1011" s="6">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1012" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1012" s="7">
-        <v>36990</v>
-      </c>
-      <c r="H1012" s="6">
-        <v>5.46</v>
-      </c>
-      <c r="I1012" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1013" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1013" s="7">
-        <v>36999</v>
-      </c>
-      <c r="H1013" s="6">
-        <v>5.69</v>
-      </c>
-      <c r="I1013" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1014" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1014" s="7">
-        <v>37012</v>
-      </c>
-      <c r="H1014" s="6">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="I1014" s="6">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1015" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1015" s="7">
-        <v>37128</v>
-      </c>
-      <c r="H1015" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="I1015" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1016" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1016" s="7">
-        <v>37138</v>
-      </c>
-      <c r="H1016" s="6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I1016" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1017" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1017" s="7">
-        <v>37144</v>
-      </c>
-      <c r="H1017" s="6">
-        <v>1.76</v>
-      </c>
-      <c r="I1017" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1018" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1018" s="7">
-        <v>37149</v>
-      </c>
-      <c r="H1018" s="6">
-        <v>2.89</v>
-      </c>
-      <c r="I1018" s="6">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1019" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1019" s="7">
-        <v>37155</v>
-      </c>
-      <c r="H1019" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="I1019" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1020" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1020" s="7">
-        <v>37161</v>
-      </c>
-      <c r="H1020" s="6">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="I1020" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1021" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1021" s="7">
-        <v>37189</v>
-      </c>
-      <c r="H1021" s="6">
-        <v>1.95</v>
-      </c>
-      <c r="I1021" s="6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1022" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1022" s="7">
-        <v>37194</v>
-      </c>
-      <c r="H1022" s="6">
-        <v>3.36</v>
-      </c>
-      <c r="I1022" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1023" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1023" s="7">
-        <v>37199</v>
-      </c>
-      <c r="H1023" s="6">
-        <v>4.16</v>
-      </c>
-      <c r="I1023" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1024" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1024" s="7">
-        <v>37206</v>
-      </c>
-      <c r="H1024" s="6">
-        <v>5.51</v>
-      </c>
-      <c r="I1024" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1025" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1025" s="7">
-        <v>37209</v>
-      </c>
-      <c r="H1025" s="6">
-        <v>6.21</v>
-      </c>
-      <c r="I1025" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1026" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1026" s="7">
-        <v>37228</v>
-      </c>
-      <c r="H1026" s="6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I1026" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1027" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1027" s="7">
-        <v>37231</v>
-      </c>
-      <c r="H1027" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="I1027" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1028" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1028" s="7">
-        <v>37238</v>
-      </c>
-      <c r="H1028" s="6">
-        <v>3.42</v>
-      </c>
-      <c r="I1028" s="6">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1029" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1029" s="7">
-        <v>37242</v>
-      </c>
-      <c r="H1029" s="6">
-        <v>4.84</v>
-      </c>
-      <c r="I1029" s="6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1030" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1030" s="7">
-        <v>37245</v>
-      </c>
-      <c r="H1030" s="6">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="I1030" s="6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1031" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1031" s="7">
-        <v>37271</v>
-      </c>
-      <c r="H1031" s="6">
-        <v>2.33</v>
-      </c>
-      <c r="I1031" s="6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1032" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1032" s="7">
-        <v>37279</v>
-      </c>
-      <c r="H1032" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="I1032" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1033" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1033" s="7">
-        <v>37284</v>
-      </c>
-      <c r="H1033" s="6">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="I1033" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1034" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1034" s="7">
-        <v>37287</v>
-      </c>
-      <c r="H1034" s="6">
-        <v>4.99</v>
-      </c>
-      <c r="I1034" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1035" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1035" s="7">
-        <v>37306</v>
-      </c>
-      <c r="H1035" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="I1035" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1036" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1036" s="7">
-        <v>37309</v>
-      </c>
-      <c r="H1036" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="I1036" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1037" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1037" s="7">
-        <v>37320</v>
-      </c>
-      <c r="H1037" s="6">
-        <v>2.85</v>
-      </c>
-      <c r="I1037" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1038" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1038" s="7">
-        <v>37326</v>
-      </c>
-      <c r="H1038" s="6">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="I1038" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1039" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1039" s="7">
-        <v>37330</v>
-      </c>
-      <c r="H1039" s="6">
-        <v>4.84</v>
-      </c>
-      <c r="I1039" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1040" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1040" s="7">
-        <v>37335</v>
-      </c>
-      <c r="H1040" s="6">
-        <v>4.91</v>
-      </c>
-      <c r="I1040" s="6">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1041" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1041" s="7">
-        <v>37340</v>
-      </c>
-      <c r="H1041" s="6">
-        <v>5.15</v>
-      </c>
-      <c r="I1041" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1042" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1042" s="7">
-        <v>37370</v>
-      </c>
-      <c r="H1042" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="I1042" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1043" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1043" s="7">
-        <v>37381</v>
-      </c>
-      <c r="H1043" s="6">
-        <v>1.47</v>
-      </c>
-      <c r="I1043" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1044" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1044" s="7">
-        <v>36888</v>
-      </c>
-      <c r="H1044" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="I1044" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1045" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1045" s="7">
-        <v>36897</v>
-      </c>
-      <c r="H1045" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I1045" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1046" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1046" s="7">
-        <v>36907</v>
-      </c>
-      <c r="H1046" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="I1046" s="6">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1047" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1047" s="7">
-        <v>36917</v>
-      </c>
-      <c r="H1047" s="6">
-        <v>3.54</v>
-      </c>
-      <c r="I1047" s="6">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1048" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1048" s="7">
-        <v>36924</v>
-      </c>
-      <c r="H1048" s="6">
-        <v>4.17</v>
-      </c>
-      <c r="I1048" s="6">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1049" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1049" s="7">
-        <v>36932</v>
-      </c>
-      <c r="H1049" s="6">
-        <v>3.87</v>
-      </c>
-      <c r="I1049" s="6">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1050" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1050" s="7">
-        <v>36944</v>
-      </c>
-      <c r="H1050" s="6">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I1050" s="6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1051" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1051" s="7">
-        <v>36948</v>
-      </c>
-      <c r="H1051" s="6">
-        <v>2.82</v>
-      </c>
-      <c r="I1051" s="6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1052" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1052" s="7">
-        <v>36952</v>
-      </c>
-      <c r="H1052" s="6">
-        <v>3.78</v>
-      </c>
-      <c r="I1052" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1053" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1053" s="7">
-        <v>36958</v>
-      </c>
-      <c r="H1053" s="6">
-        <v>5.31</v>
-      </c>
-      <c r="I1053" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1054" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1054" s="7">
-        <v>36964</v>
-      </c>
-      <c r="H1054" s="6">
-        <v>5.47</v>
-      </c>
-      <c r="I1054" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1055" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1055" s="7">
-        <v>36972</v>
-      </c>
-      <c r="H1055" s="6">
-        <v>5.93</v>
-      </c>
-      <c r="I1055" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1056" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1056" s="7">
-        <v>36983</v>
-      </c>
-      <c r="H1056" s="6">
-        <v>5.49</v>
-      </c>
-      <c r="I1056" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1057" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1057" s="7">
-        <v>36990</v>
-      </c>
-      <c r="H1057" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="I1057" s="6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1058" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1058" s="7">
-        <v>36999</v>
-      </c>
-      <c r="H1058" s="6">
-        <v>5.18</v>
-      </c>
-      <c r="I1058" s="6">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1059" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1059" s="7">
-        <v>37012</v>
-      </c>
-      <c r="H1059" s="6">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="I1059" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1060" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1060" s="7">
-        <v>37128</v>
-      </c>
-      <c r="H1060" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I1060" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1061" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1061" s="7">
-        <v>37138</v>
-      </c>
-      <c r="H1061" s="6">
-        <v>1.33</v>
-      </c>
-      <c r="I1061" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1062" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1062" s="7">
-        <v>37144</v>
-      </c>
-      <c r="H1062" s="6">
-        <v>2.02</v>
-      </c>
-      <c r="I1062" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1063" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1063" s="7">
-        <v>37149</v>
-      </c>
-      <c r="H1063" s="6">
-        <v>3.38</v>
-      </c>
-      <c r="I1063" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1064" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1064" s="7">
-        <v>37155</v>
-      </c>
-      <c r="H1064" s="6">
-        <v>4.47</v>
-      </c>
-      <c r="I1064" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1065" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1065" s="7">
-        <v>37161</v>
-      </c>
-      <c r="H1065" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="I1065" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1066" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1066" s="7">
-        <v>36907</v>
-      </c>
-      <c r="H1066" s="6">
-        <v>1.01</v>
-      </c>
-      <c r="I1066" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1067" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1067" s="7">
-        <v>36917</v>
-      </c>
-      <c r="H1067" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="I1067" s="6">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1068" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1068" s="7">
-        <v>36924</v>
-      </c>
-      <c r="H1068" s="6">
-        <v>3.36</v>
-      </c>
-      <c r="I1068" s="6">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1069" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1069" s="7">
-        <v>36932</v>
-      </c>
-      <c r="H1069" s="6">
-        <v>3.47</v>
-      </c>
-      <c r="I1069" s="6">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1070" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1070" s="7">
-        <v>36940</v>
-      </c>
-      <c r="H1070" s="6">
-        <v>4.51</v>
-      </c>
-      <c r="I1070" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1071" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1071" s="7">
-        <v>36944</v>
-      </c>
-      <c r="H1071" s="6">
-        <v>5.61</v>
-      </c>
-      <c r="I1071" s="6">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1072" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1072" s="7">
-        <v>36948</v>
-      </c>
-      <c r="H1072" s="6">
-        <v>5.55</v>
-      </c>
-      <c r="I1072" s="6">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1073" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1073" s="7">
-        <v>36952</v>
-      </c>
-      <c r="H1073" s="6">
-        <v>5.82</v>
-      </c>
-      <c r="I1073" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1074" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1074" s="7">
-        <v>36964</v>
-      </c>
-      <c r="H1074" s="6">
-        <v>0.53</v>
-      </c>
-      <c r="I1074" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1075" s="7">
-        <v>36972</v>
-      </c>
-      <c r="H1075" s="6">
-        <v>2.91</v>
-      </c>
-      <c r="I1075" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1076" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1076" s="7">
-        <v>36983</v>
-      </c>
-      <c r="H1076" s="6">
-        <v>5.26</v>
-      </c>
-      <c r="I1076" s="6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1077" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1077" s="7">
-        <v>36990</v>
-      </c>
-      <c r="H1077" s="6">
-        <v>5.66</v>
-      </c>
-      <c r="I1077" s="6">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1078" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1078" s="7">
-        <v>36999</v>
-      </c>
-      <c r="H1078" s="6">
-        <v>5.78</v>
-      </c>
-      <c r="I1078" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1079" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1079" s="7">
-        <v>37012</v>
-      </c>
-      <c r="H1079" s="6">
-        <v>4.76</v>
-      </c>
-      <c r="I1079" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1080" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1080" s="7">
-        <v>37128</v>
-      </c>
-      <c r="H1080" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="I1080" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1081" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1081" s="7">
-        <v>37138</v>
-      </c>
-      <c r="H1081" s="6">
-        <v>1.22</v>
-      </c>
-      <c r="I1081" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1082" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1082" s="7">
-        <v>37144</v>
-      </c>
-      <c r="H1082" s="6">
-        <v>2.14</v>
-      </c>
-      <c r="I1082" s="6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1083" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1083" s="7">
-        <v>37149</v>
-      </c>
-      <c r="H1083" s="6">
-        <v>2.86</v>
-      </c>
-      <c r="I1083" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1084" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1084" s="7">
-        <v>37155</v>
-      </c>
-      <c r="H1084" s="6">
-        <v>3.94</v>
-      </c>
-      <c r="I1084" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1085" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1085" s="7">
-        <v>37161</v>
-      </c>
-      <c r="H1085" s="6">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="I1085" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1086" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1086" s="7">
-        <v>36932</v>
-      </c>
-      <c r="H1086" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I1086" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1087" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1087" s="7">
-        <v>36940</v>
-      </c>
-      <c r="H1087" s="6">
-        <v>1.97</v>
-      </c>
-      <c r="I1087" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1088" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1088" s="7">
-        <v>36944</v>
-      </c>
-      <c r="H1088" s="6">
-        <v>2.95</v>
-      </c>
-      <c r="I1088" s="6">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1089" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1089" s="7">
-        <v>36948</v>
-      </c>
-      <c r="H1089" s="6">
-        <v>4.01</v>
-      </c>
-      <c r="I1089" s="6">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1090" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1090" s="7">
-        <v>36952</v>
-      </c>
-      <c r="H1090" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="I1090" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1091" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1091" s="7">
-        <v>36958</v>
-      </c>
-      <c r="H1091" s="6">
-        <v>5.04</v>
-      </c>
-      <c r="I1091" s="6">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1092" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1092" s="7">
-        <v>36964</v>
-      </c>
-      <c r="H1092" s="6">
-        <v>5.15</v>
-      </c>
-      <c r="I1092" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1093" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1093" s="7">
-        <v>36972</v>
-      </c>
-      <c r="H1093" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="I1093" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1094" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1094" s="7">
-        <v>36990</v>
-      </c>
-      <c r="H1094" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="I1094" s="6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1095" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1095" s="7">
-        <v>36999</v>
-      </c>
-      <c r="H1095" s="6">
-        <v>2.71</v>
-      </c>
-      <c r="I1095" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1096" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1096" s="7">
-        <v>37012</v>
-      </c>
-      <c r="H1096" s="6">
-        <v>3.43</v>
-      </c>
-      <c r="I1096" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1097" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1097" s="7">
-        <v>37128</v>
-      </c>
-      <c r="H1097" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="I1097" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1098" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1098" s="7">
-        <v>37138</v>
-      </c>
-      <c r="H1098" s="6">
-        <v>1</v>
-      </c>
-      <c r="I1098" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1099" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1099" s="7">
-        <v>37144</v>
-      </c>
-      <c r="H1099" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="I1099" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1100" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1100" s="7">
-        <v>37149</v>
-      </c>
-      <c r="H1100" s="6">
-        <v>2.63</v>
-      </c>
-      <c r="I1100" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1101" s="7">
-        <v>37155</v>
-      </c>
-      <c r="H1101" s="6">
-        <v>3.48</v>
-      </c>
-      <c r="I1101" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1102" s="7">
-        <v>37161</v>
-      </c>
-      <c r="H1102" s="6">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I1102" s="6">
-        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Lucerne/RootN.xlsx
+++ b/Prototypes/Lucerne/RootN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APSIMX2\Prototypes\Lucerne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1748B39-3C0A-4BD0-9CBE-5A99658D23B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0639D-F747-438F-8DA7-C35C3010633C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="45">
   <si>
     <t>Iversen_91DefoliationLS</t>
   </si>
@@ -185,6 +185,17 @@
   </si>
   <si>
     <t>Iversen_121DefoliationHHFDFD10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iversen_91DefoliationLL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iversen_8Waterirr</t>
+  </si>
+  <si>
+    <t>Iversen_8Waterirr</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -650,6 +661,26 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -781,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +827,8 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1151,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G999"/>
+  <dimension ref="A1:G1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K998" sqref="K998"/>
+      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1020" sqref="G1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12382,7 +12415,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B999" s="1">
         <v>38147</v>
@@ -12392,8 +12425,261 @@
         <v>773</v>
       </c>
     </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1000" s="6">
+        <v>35829</v>
+      </c>
+      <c r="E1000" s="3">
+        <v>5.024</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1001" s="7">
+        <v>35866</v>
+      </c>
+      <c r="E1001" s="3">
+        <v>4.976</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1002" s="7">
+        <v>36110</v>
+      </c>
+      <c r="E1002" s="3">
+        <v>5.5360000000000005</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1003" s="7">
+        <v>36208</v>
+      </c>
+      <c r="E1003" s="3">
+        <v>4.2880000000000003</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1004" s="7">
+        <v>36259</v>
+      </c>
+      <c r="E1004" s="3">
+        <v>4.4480000000000004</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1005" s="7">
+        <v>36791</v>
+      </c>
+      <c r="E1005" s="3">
+        <v>4.5575093181319897</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1006" s="7">
+        <v>36840</v>
+      </c>
+      <c r="E1006" s="3">
+        <v>4.3936493936052923</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1007" s="7">
+        <v>36879</v>
+      </c>
+      <c r="E1007" s="3">
+        <v>4.5945518453427061</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1008" s="7">
+        <v>36915</v>
+      </c>
+      <c r="E1008" s="3">
+        <v>4.5026355913744283</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1009" s="7">
+        <v>36961</v>
+      </c>
+      <c r="E1009" s="3">
+        <v>4.1903152421189471</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1010" s="7">
+        <v>37013</v>
+      </c>
+      <c r="E1010" s="3">
+        <v>4.7856552923277542</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1011" s="7">
+        <v>37066</v>
+      </c>
+      <c r="E1011" s="3">
+        <v>5.2027072758037232</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1012" s="6">
+        <v>35829</v>
+      </c>
+      <c r="D1012" s="3">
+        <v>2.0426666666666664</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1013" s="7">
+        <v>35866</v>
+      </c>
+      <c r="D1013" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1014" s="7">
+        <v>36110</v>
+      </c>
+      <c r="D1014" s="3">
+        <v>2.2880000000000003</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1015" s="7">
+        <v>36208</v>
+      </c>
+      <c r="D1015" s="3">
+        <v>1.2640000000000002</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1016" s="7">
+        <v>36259</v>
+      </c>
+      <c r="D1016" s="3">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1017" s="7">
+        <v>36791</v>
+      </c>
+      <c r="D1017" s="3">
+        <v>2.0805283434232251</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1018" s="7">
+        <v>36840</v>
+      </c>
+      <c r="D1018" s="3">
+        <v>2.0246805722398169</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1019" s="7">
+        <v>36879</v>
+      </c>
+      <c r="D1019" s="3">
+        <v>1.7001217218103353</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1020" s="7">
+        <v>36915</v>
+      </c>
+      <c r="D1020" s="3">
+        <v>1.6267123287671235</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1021" s="7">
+        <v>36961</v>
+      </c>
+      <c r="D1021" s="3">
+        <v>1.4114726027397262</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1022" s="7">
+        <v>37013</v>
+      </c>
+      <c r="D1022" s="3">
+        <v>1.7217972201271414</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1102" xr:uid="{2D784183-B080-4DD4-9FD4-E2E29486E4AB}"/>
+  <autoFilter ref="A1:E1101" xr:uid="{2D784183-B080-4DD4-9FD4-E2E29486E4AB}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prototypes/Lucerne/RootN.xlsx
+++ b/Prototypes/Lucerne/RootN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APSIMX2\Prototypes\Lucerne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0639D-F747-438F-8DA7-C35C3010633C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C6893-E19C-4916-8FCE-FF67247DDEAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RootN" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RootN!$A$1:$E$999</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RootN!$A$1:$H$1139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="46">
   <si>
     <t>Iversen_91DefoliationLS</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>Iversen_8Waterirr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1184,11 +1188,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1022"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1020" sqref="G1020"/>
+      <pane ySplit="1" topLeftCell="A777" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F553" sqref="F553:F927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1204,7 @@
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1226,11 @@
       <c r="G1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>1.693333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>1.637573333</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>1.2909999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>1.1254999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>1.165333333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>1.127666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>1.350333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>1.6366666670000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>1.3572</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>1.2081599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>1.2352799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>1.1528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>1.15232</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>1.0869599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1417,7 @@
         <v>0.99295999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>1.3071999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>1.3315999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>1.318004647</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>1.4645333330000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1505,7 @@
         <v>1.2898000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>1.122346667</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>1.2819199999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1538,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>1.3824666670000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>1.1803999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1571,7 @@
         <v>1.3708800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>1.4002399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>1.2684800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>1.2128000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>1.1763999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>1.4566399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1637,7 @@
         <v>1.40032</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1648,7 @@
         <v>1.5363997650000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>1.1626666670000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>1.20408</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>1.18336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>1.4085333330000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>1.5233333330000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1714,7 @@
         <v>1.601653333</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>1.67344</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>1.3764000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>1.254</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>1.11256</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>1.01264</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>1.1756</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>1.3307199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>1.3609599999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1813,7 @@
         <v>1.57056</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>1.4602461980000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>2.1440000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1838,7 +1846,7 @@
         <v>1.8208</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>1.6744000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>1.391666667</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>1.5856666669999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>1.285833333</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1934,7 @@
         <v>1.658833333</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>1.6918333329999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>1.606666667</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1978,7 @@
         <v>1.69306</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>1.39584</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>1.22072</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2011,7 @@
         <v>1.31792</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2022,7 @@
         <v>1.1897599999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>1.5049999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>1.5344800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>1.4130400000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2077,7 @@
         <v>1.8391999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2088,7 @@
         <v>1.6504324340000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2099,7 @@
         <v>2.7922666669999998</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>2.6988266670000001</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>1.6502399999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2132,7 @@
         <v>1.538226423</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>2.0609136509999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2146,7 +2154,7 @@
         <v>2.6579238959999998</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>4.7254516559999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2187,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>2.7659216639999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2209,7 @@
         <v>2.3028982920000001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>1.6847394600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2231,7 @@
         <v>1.8827905680000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2253,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>1.806601372</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>3.437266234</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>4.6927200320000004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>5.56576</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>5.6246400000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2363,7 @@
         <v>4.9970879999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2374,7 @@
         <v>4.6353639690000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>5.0393434480000003</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2396,7 @@
         <v>5.2879784939999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>5.9277734400000002</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2440,7 @@
         <v>5.497389224</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>5.2421559880000004</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>4.9871992479999996</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>5.244282836</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2484,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2495,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>5.1104421999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>5.7387889080000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>6.3024655120000004</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>5.7265600000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>5.93248</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>6.0968</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>5.5891200000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>5.351857152</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>5.8092266669999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>5.9577881890000004</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>5.8980988490000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +2712,7 @@
         <v>5.958578792</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2726,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2754,7 @@
         <v>5.761630856</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>5.7307870479999998</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>5.3654676800000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2796,7 @@
         <v>5.5863449080000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>5.1339361559999999</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>5.5776443479999998</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -2830,7 +2838,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>6.1256659950000003</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2880,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -2886,7 +2894,7 @@
         <v>5.6392477440000004</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>6.1573983759999997</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>5.8274996960000003</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>6.5665524319999999</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>5.7752777120000003</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +3006,7 @@
         <v>6.8693600400000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>5.4111395279999996</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>5.2573889920000001</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3048,7 @@
         <v>5.5481840519999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3062,7 @@
         <v>4.655010528</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>4.9282999439999999</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>6.0292317200000003</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3104,7 @@
         <v>5.7978266879999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>6.7579000799999998</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>5.710471192</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3146,7 @@
         <v>5.4818722510000004</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>3.1599256960000002</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>5.5744912720000004</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>5.5319976879999997</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>5.7160790959999996</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>5.3714294479999998</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>5.4424385080000004</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>4.7892704840000002</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>5.6499043320000002</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3269,7 @@
         <v>5.300045624</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>5.7703045680000002</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>6.454682</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3308,7 @@
         <v>4.5828830718994142</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>4.9166744995117186</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>5.2061732991536456</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3341,7 @@
         <v>5.0136344909667976</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>5.6149278259277349</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3363,7 @@
         <v>4.9984481811523436</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>5.586075134277344</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>5.4546234130859368</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>5.308634185791016</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>5.4255088806152347</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>5.5090478515625003</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -3421,7 +3429,7 @@
         <v>5.7883432006835935</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -3432,7 +3440,7 @@
         <v>4.4698084004720053</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>6.5094433593750001</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3462,7 @@
         <v>4.7638505172729495</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>5.8796107482910154</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>5.0777099609374998</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -3487,7 +3495,7 @@
         <v>5.7895329284667971</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>5.2035632629394524</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>3.8132278442382814</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>5.096527976989746</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -3531,7 +3539,7 @@
         <v>4.2855196380615235</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>4.807783966064453</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>5.0004828898111979</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>5.7613784790039064</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>5.1160451507568361</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -3586,7 +3594,7 @@
         <v>5.6353705596923831</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>5.3135131835937504</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -3608,7 +3616,7 @@
         <v>5.1464324188232418</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>5.4120877075195315</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>5.7308596801757812</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>5.2085543060302735</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>4.8096719360351559</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>5.7602761840820316</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>4.6829351806640629</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>4.9789159774780272</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>5.3964295959472661</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>5.1822801971435544</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>5.0647817993164059</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>5.6609683609008794</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>5.0556756210327158</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>4.4147080993652343</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>5.1945729573567716</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3781,7 @@
         <v>4.680705642700195</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>18</v>
       </c>
@@ -3784,7 +3792,7 @@
         <v>4.6799678039550781</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>5.3582322692871092</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>5.5167779541015625</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>4.7181787872314453</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -3828,7 +3836,7 @@
         <v>5.429764862060547</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>5.1353176116943358</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>5.4646994018554693</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>5.9730009460449214</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3880,7 @@
         <v>5.8894975280761717</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -3883,7 +3891,7 @@
         <v>4.741788635253906</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -3894,7 +3902,7 @@
         <v>4.5981483459472656</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>6.1111947631835939</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>3.9259517669677737</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>6.2381936645507814</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>4.721818466186523</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>5.5898353576660149</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>4.8109332656860353</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>5.7759027099609375</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>5.55145263671875</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>5.1317407226562501</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>4.0550622940063477</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>5.1394546127319334</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>4.7938373565673826</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>4.7989679718017584</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>5.3211825180053705</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>5.3881087239583332</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>5.830985107421875</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>5.4036861038208013</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>5.8578253173828125</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>5.2029010772705071</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>4.8065141677856449</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>4.0934807205200192</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>4.3590929412841799</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4155,7 @@
         <v>4.528822402954102</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>5.8063174438476564</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>4.5215551376342775</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>4.9893613815307623</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>5.359804763793945</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>5.7187704086303706</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -4213,7 +4221,7 @@
         <v>5.3253609212239583</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -4224,7 +4232,7 @@
         <v>5.8554769388834629</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>3.9829557800292967</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>4.5996173095703128</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>5.3380603027343758</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>4.843157730102539</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>21</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>5.4468705749511717</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -4290,7 +4298,7 @@
         <v>5.6340086873372401</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>6.1816152954101566</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>5.5561121622721359</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>5.1079972839355472</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>21</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>5.3114806365966798</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>4.6882001113891603</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -4356,7 +4364,7 @@
         <v>4.8116700744628913</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -4367,7 +4375,7 @@
         <v>4.8398429489135744</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4386,7 @@
         <v>6.0944506072998053</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>4.9743632507324218</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -4400,7 +4408,7 @@
         <v>5.3226879119873045</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -4411,7 +4419,7 @@
         <v>4.88941899617513</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>21</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>4.3147705078124998</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -4433,7 +4441,7 @@
         <v>5.423095817565919</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>6.1554615020751955</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>21</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>4.1237486648559569</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>4.7497131347656252</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>21</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>5.2886854171752926</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>4.7229868316650396</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>5.0483715820312502</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>4.9241284561157226</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>5.7081964111328123</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -4532,7 +4540,7 @@
         <v>6.0762311808268237</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>5.3993646240234376</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>4.9058220672607415</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -4565,7 +4573,7 @@
         <v>4.6431017303466797</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>23</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>3.9745450973510743</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>23</v>
       </c>
@@ -4587,7 +4595,7 @@
         <v>4.1418157196044927</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>23</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>4.4284521865844724</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>5.3752367782592767</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -4620,7 +4628,7 @@
         <v>4.2816574859619134</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>5.0550419998168943</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -4642,7 +4650,7 @@
         <v>5.0251907730102543</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>5.9141996765136717</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -4664,7 +4672,7 @@
         <v>4.9404843648274737</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -4675,7 +4683,7 @@
         <v>5.8407507324218741</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>23</v>
       </c>
@@ -4686,7 +4694,7 @@
         <v>4.0297687530517576</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>3.7734086608886717</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>23</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>5.4503343963623045</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>4.9103962707519528</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>3.8247257486979169</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>25</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>5.2150698852539055</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>25</v>
       </c>
@@ -4752,7 +4760,7 @@
         <v>4.7589095306396487</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>25</v>
       </c>
@@ -4763,7 +4771,7 @@
         <v>4.8066400909423823</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>25</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>5.4828414916992188</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>25</v>
       </c>
@@ -4785,7 +4793,7 @@
         <v>4.4540967178344726</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>4.4176596832275399</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>25</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>5.5908448791503904</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>25</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>4.7954265213012697</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>5.0481810379028316</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>25</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>3.9362837600708005</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>25</v>
       </c>
@@ -4851,7 +4859,7 @@
         <v>5.1271979904174803</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>28</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>5.2418038940429685</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>4.1713921356201169</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>5.3234388732910158</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>5.0378484344482422</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>4.9466165161132816</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>27</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>4.7679360961914066</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -4928,7 +4936,7 @@
         <v>4.083658599853516</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -4939,7 +4947,7 @@
         <v>4.4399370574951167</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>5.0572760009765627</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>27</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>4.4918209838867185</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -4972,7 +4980,7 @@
         <v>5.3272782135009766</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>3.8548862075805665</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>5.3622031402587886</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>30</v>
       </c>
@@ -5005,7 +5013,7 @@
         <v>4.7975860595703121</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>30</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>4.1412812805175783</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>29</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>4.8721611022949221</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>4.4333136749267581</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>29</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>4.9321146392822266</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>5.4409304809570314</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>3.8809027862548828</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>29</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>4.3974978256225583</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>29</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>5.1847334289550782</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>29</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>4.3372884368896489</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>29</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>5.0882077789306646</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>3.7850329589843748</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>5.5070237731933593</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>1.1108135986328125</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>26</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>1.4129915746053061</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>25</v>
       </c>
@@ -5170,7 +5178,7 @@
         <v>2.4944960784912107</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>25</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>2.4951603698730471</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>25</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>2.194632949829102</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>25</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>1.9838018417358398</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>1.715868444442749</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -5225,7 +5233,7 @@
         <v>1.2968468729654949</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -5236,7 +5244,7 @@
         <v>1.7167602920532226</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -5247,7 +5255,7 @@
         <v>1.4195399951934813</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>25</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>1.8027807617187499</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>25</v>
       </c>
@@ -5269,7 +5277,7 @@
         <v>0.93747451782226565</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>28</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>0.81278255462646487</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>28</v>
       </c>
@@ -5291,7 +5299,7 @@
         <v>1.4199536323547362</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -5302,7 +5310,7 @@
         <v>2.2362957191467285</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>2.00358850479126</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>2.0692410469055176</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>1.6762322807312011</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>1.4864222526550295</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -5357,7 +5365,7 @@
         <v>1.2566707992553712</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -5368,7 +5376,7 @@
         <v>1.6806740188598632</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>1.2901266860961913</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>1.9902255821228025</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>0.96768775463104251</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>30</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>1.0794373321533204</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>30</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>1.3757784271240234</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>29</v>
       </c>
@@ -5434,7 +5442,7 @@
         <v>1.9740992736816407</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>1.5506605911254883</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>29</v>
       </c>
@@ -5456,7 +5464,7 @@
         <v>1.6739228248596192</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>29</v>
       </c>
@@ -5467,7 +5475,7 @@
         <v>1.6644833755493165</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>29</v>
       </c>
@@ -5478,7 +5486,7 @@
         <v>1.3737599182128908</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>29</v>
       </c>
@@ -5489,7 +5497,7 @@
         <v>1.4244414329528807</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>29</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>1.4721717071533205</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>29</v>
       </c>
@@ -5511,7 +5519,7 @@
         <v>1.1050367546081543</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>29</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>1.7517241954803466</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>29</v>
       </c>
@@ -5533,7 +5541,7 @@
         <v>0.85604654312133799</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>1.0461974525451661</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>16</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>1.1074720859527587</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>1.0020957565307618</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>15</v>
       </c>
@@ -5577,7 +5585,7 @@
         <v>1.8797202014923093</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>15</v>
       </c>
@@ -5588,7 +5596,7 @@
         <v>2.0945476627349855</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>15</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>1.8804110813140871</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -5610,7 +5618,7 @@
         <v>1.4641603565216066</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>1.6282378959655763</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>15</v>
       </c>
@@ -5632,7 +5640,7 @@
         <v>1.1193906831741334</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>1.7128808307647705</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>15</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>1.670287342071533</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>2.2975056171417236</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -5676,7 +5684,7 @@
         <v>1.9041135025024416</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -5687,7 +5695,7 @@
         <v>1.0938385613759358</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>1.1572071647644044</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>1.2137187385559083</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>1.1636570930480956</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>1.8739029121398927</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -5742,7 +5750,7 @@
         <v>1.9326016426086425</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>13</v>
       </c>
@@ -5753,7 +5761,7 @@
         <v>2.181309833526611</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -5764,7 +5772,7 @@
         <v>1.7933123207092285</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>1.75440824508667</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>1.3004214413960775</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>13</v>
       </c>
@@ -5797,7 +5805,7 @@
         <v>2.111642971038818</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>1.6147009658813478</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>2.2914213244120285</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -5830,7 +5838,7 @@
         <v>1.7081278228759766</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>13</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>1.032786865234375</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>18</v>
       </c>
@@ -5852,7 +5860,7 @@
         <v>1.2571000957489014</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>18</v>
       </c>
@@ -5863,7 +5871,7 @@
         <v>1.1029602336883544</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -5874,7 +5882,7 @@
         <v>1.7197949123382568</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>17</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>1.9117398357391355</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>17</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>1.8435695171356201</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -5907,7 +5915,7 @@
         <v>2.2280525493621823</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>17</v>
       </c>
@@ -5918,7 +5926,7 @@
         <v>1.5358355045318604</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>1.5548800106048586</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>17</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>1.0772241401672362</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>1.7133216381072995</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>17</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>1.5562926292419434</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>17</v>
       </c>
@@ -5973,7 +5981,7 @@
         <v>1.9889368534088132</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>17</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>1.7144938468933106</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>1.0450106382369997</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>22</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>1.8122470855712891</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>22</v>
       </c>
@@ -6017,7 +6025,7 @@
         <v>1.9661702346801759</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>21</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>2.1547308731079102</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>21</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>1.2643143463134767</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>21</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>1.9378782176971436</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>21</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>1.9246765518188478</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>21</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>2.2447797203063966</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>21</v>
       </c>
@@ -6083,7 +6091,7 @@
         <v>2.3704441452026366</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>21</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>1.7046577358245851</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>21</v>
       </c>
@@ -6105,7 +6113,7 @@
         <v>2.124404335021973</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>21</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>2.3053761100769044</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>21</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>1.6012257671356203</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>21</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>1.7253899383544922</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>20</v>
       </c>
@@ -6149,7 +6157,7 @@
         <v>1.8949993324279784</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>20</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>2.024299278259277</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>19</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>2.2219138209025067</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>2.5886737060546872</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>19</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>2.2588922500610349</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>19</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>2.1940937423706055</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>19</v>
       </c>
@@ -6215,7 +6223,7 @@
         <v>2.3415502166748046</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>19</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>2.2541352653503419</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>19</v>
       </c>
@@ -6237,7 +6245,7 @@
         <v>1.7013012218475341</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>19</v>
       </c>
@@ -6248,7 +6256,7 @@
         <v>1.8430662918090821</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>19</v>
       </c>
@@ -6259,7 +6267,7 @@
         <v>2.2753807830810548</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>19</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>1.5321221733093262</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>19</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>1.6391912206013997</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>24</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>1.8325058937072756</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>24</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>1.9337195205688478</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>23</v>
       </c>
@@ -6314,7 +6322,7 @@
         <v>1.9625467681884765</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>23</v>
       </c>
@@ -6325,7 +6333,7 @@
         <v>2.4853208796183268</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>23</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>1.9847497749328613</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>23</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>1.9378451410929363</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>23</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>2.176318759918213</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>23</v>
       </c>
@@ -6369,7 +6377,7 @@
         <v>2.0931157493591313</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>23</v>
       </c>
@@ -6380,7 +6388,7 @@
         <v>1.5356664848327637</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>23</v>
       </c>
@@ -6391,7 +6399,7 @@
         <v>1.9648989995320638</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>23</v>
       </c>
@@ -6402,7 +6410,7 @@
         <v>2.2095119476318361</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>23</v>
       </c>
@@ -6413,7 +6421,7 @@
         <v>1.6302967929840089</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>24</v>
       </c>
@@ -6424,7 +6432,7 @@
         <v>1.491101106007894</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>22</v>
       </c>
@@ -6435,7 +6443,7 @@
         <v>1.0665</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>22</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>21</v>
       </c>
@@ -6457,7 +6465,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>21</v>
       </c>
@@ -6468,7 +6476,7 @@
         <v>1.216</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6487,7 @@
         <v>1.1789999999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>21</v>
       </c>
@@ -6490,7 +6498,7 @@
         <v>2.3808333333333334</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>21</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>21</v>
       </c>
@@ -6512,7 +6520,7 @@
         <v>1.2070000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>21</v>
       </c>
@@ -6523,7 +6531,7 @@
         <v>2.1243333333333334</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>21</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>1.8025833333333334</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>21</v>
       </c>
@@ -6545,7 +6553,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>20</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>20</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>1.1159999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>19</v>
       </c>
@@ -6611,7 +6619,7 @@
         <v>1.7996666666666667</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>19</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>1.3318888888888889</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>19</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>1.1555</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>19</v>
       </c>
@@ -6644,7 +6652,7 @@
         <v>1.5549999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>19</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>1.7623333333333333</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>19</v>
       </c>
@@ -6666,7 +6674,7 @@
         <v>1.5425</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>24</v>
       </c>
@@ -6677,7 +6685,7 @@
         <v>1.1054999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>24</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>23</v>
       </c>
@@ -6699,7 +6707,7 @@
         <v>1.165</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6718,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>23</v>
       </c>
@@ -6721,7 +6729,7 @@
         <v>1.0503333333333333</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>23</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>1.5884999999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>23</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>1.0183333333333333</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>23</v>
       </c>
@@ -6754,7 +6762,7 @@
         <v>1.0926666666666667</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>23</v>
       </c>
@@ -6765,7 +6773,7 @@
         <v>1.3520000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>23</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>1.4113333333333333</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>23</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>16</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>15</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>1.569</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>15</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>15</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>1.3516666666666666</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>15</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>2.2475000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>15</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>1.1948333333333332</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>15</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>1.3758333333333332</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>15</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>1.8948333333333334</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>15</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>2.0864166666666666</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>15</v>
       </c>
@@ -6897,7 +6905,7 @@
         <v>1.5805</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>14</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>1.0445</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6927,7 @@
         <v>2.5619999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -6930,7 +6938,7 @@
         <v>1.1990000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>13</v>
       </c>
@@ -6952,7 +6960,7 @@
         <v>1.1976666666666667</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -6963,7 +6971,7 @@
         <v>1.8431666666666666</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -6985,7 +6993,7 @@
         <v>1.1501666666666666</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -6996,7 +7004,7 @@
         <v>1.7995000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>13</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>1.6436666666666666</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>13</v>
       </c>
@@ -7018,7 +7026,7 @@
         <v>1.4085000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>18</v>
       </c>
@@ -7029,7 +7037,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>18</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>17</v>
       </c>
@@ -7051,7 +7059,7 @@
         <v>1.778</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>17</v>
       </c>
@@ -7062,7 +7070,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>17</v>
       </c>
@@ -7073,7 +7081,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>1.6859999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>17</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>1.0173749999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>17</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>1.3861666666666668</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>17</v>
       </c>
@@ -7117,7 +7125,7 @@
         <v>1.6919999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>17</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>1.6048333333333333</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>17</v>
       </c>
@@ -7139,7 +7147,7 @@
         <v>1.5802499999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>26</v>
       </c>
@@ -7150,7 +7158,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>25</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>2.4394999999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>25</v>
       </c>
@@ -7172,7 +7180,7 @@
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>25</v>
       </c>
@@ -7183,7 +7191,7 @@
         <v>1.4989999999999999</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>25</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>2.6544444444444442</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>25</v>
       </c>
@@ -7205,7 +7213,7 @@
         <v>1.4952777777777779</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>25</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>1.6086666666666669</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>25</v>
       </c>
@@ -7227,7 +7235,7 @@
         <v>2.2553333333333332</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>25</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>2.035222222222222</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>28</v>
       </c>
@@ -7249,7 +7257,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>27</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>2.786</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>27</v>
       </c>
@@ -7271,7 +7279,7 @@
         <v>1.8984999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>27</v>
       </c>
@@ -7282,7 +7290,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>27</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>2.5318888888888886</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>27</v>
       </c>
@@ -7304,7 +7312,7 @@
         <v>1.6326666666666669</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>27</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>1.9453333333333334</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>27</v>
       </c>
@@ -7326,7 +7334,7 @@
         <v>2.2300555555555555</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>27</v>
       </c>
@@ -7337,7 +7345,7 @@
         <v>2.2328333333333332</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>30</v>
       </c>
@@ -7348,7 +7356,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>30</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>2.3079999999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>29</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>1.8815</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>29</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>1.514</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>29</v>
       </c>
@@ -7392,7 +7400,7 @@
         <v>2.4301111111111111</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>29</v>
       </c>
@@ -7403,7 +7411,7 @@
         <v>1.2040555555555557</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>29</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>1.8196666666666665</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>29</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>2.3231666666666668</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>29</v>
       </c>
@@ -9988,7 +9996,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>33</v>
       </c>
@@ -9999,7 +10007,7 @@
         <v>803.75</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>33</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>1246.25</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>21</v>
       </c>
@@ -10021,7 +10029,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>21</v>
       </c>
@@ -10032,7 +10040,7 @@
         <v>1308.75</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>21</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>1632.5</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>21</v>
       </c>
@@ -10054,7 +10062,7 @@
         <v>847.5</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>21</v>
       </c>
@@ -10065,7 +10073,7 @@
         <v>1151.25</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>21</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>21</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>673.75</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>21</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>451.25</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>21</v>
       </c>
@@ -10109,7 +10117,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>21</v>
       </c>
@@ -10120,7 +10128,7 @@
         <v>966.25</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>21</v>
       </c>
@@ -10131,7 +10139,7 @@
         <v>1002.5</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>21</v>
       </c>
@@ -10142,7 +10150,7 @@
         <v>458.75</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>21</v>
       </c>
@@ -10153,7 +10161,7 @@
         <v>587.5</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>21</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>278.75</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>21</v>
       </c>
@@ -10175,7 +10183,7 @@
         <v>872.5</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>21</v>
       </c>
@@ -10186,7 +10194,7 @@
         <v>438.75</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>21</v>
       </c>
@@ -10197,7 +10205,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>34</v>
       </c>
@@ -10208,7 +10216,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>19</v>
       </c>
@@ -10219,7 +10227,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>19</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>19</v>
       </c>
@@ -10241,7 +10249,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>19</v>
       </c>
@@ -10252,7 +10260,7 @@
         <v>628.75</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>19</v>
       </c>
@@ -10263,7 +10271,7 @@
         <v>951.25</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>19</v>
       </c>
@@ -10274,7 +10282,7 @@
         <v>923.75</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>19</v>
       </c>
@@ -10285,7 +10293,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>19</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>473.75</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>19</v>
       </c>
@@ -10307,7 +10315,7 @@
         <v>567.5</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>19</v>
       </c>
@@ -10318,7 +10326,7 @@
         <v>636.25</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>19</v>
       </c>
@@ -10329,7 +10337,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>19</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>673.75</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>19</v>
       </c>
@@ -10351,7 +10359,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>19</v>
       </c>
@@ -10362,7 +10370,7 @@
         <v>286.25</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>19</v>
       </c>
@@ -10373,7 +10381,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>19</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>656.25</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>19</v>
       </c>
@@ -10395,7 +10403,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>19</v>
       </c>
@@ -10406,7 +10414,7 @@
         <v>347.5</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>35</v>
       </c>
@@ -10417,7 +10425,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>35</v>
       </c>
@@ -10428,7 +10436,7 @@
         <v>743.75</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>23</v>
       </c>
@@ -10439,7 +10447,7 @@
         <v>1181.25</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>23</v>
       </c>
@@ -10450,7 +10458,7 @@
         <v>788.75</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>23</v>
       </c>
@@ -10461,7 +10469,7 @@
         <v>952.5</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>23</v>
       </c>
@@ -10472,7 +10480,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>23</v>
       </c>
@@ -10483,7 +10491,7 @@
         <v>881.25</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>23</v>
       </c>
@@ -10494,7 +10502,7 @@
         <v>841.25</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>23</v>
       </c>
@@ -10505,7 +10513,7 @@
         <v>401.25</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>23</v>
       </c>
@@ -10516,7 +10524,7 @@
         <v>213.75</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>23</v>
       </c>
@@ -10527,7 +10535,7 @@
         <v>263.75</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>23</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>371.25</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>23</v>
       </c>
@@ -10549,7 +10557,7 @@
         <v>558.75</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>23</v>
       </c>
@@ -10560,7 +10568,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>23</v>
       </c>
@@ -10571,7 +10579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>23</v>
       </c>
@@ -10582,7 +10590,7 @@
         <v>196.25</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>23</v>
       </c>
@@ -10593,7 +10601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>23</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>386.25</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>23</v>
       </c>
@@ -10615,7 +10623,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>23</v>
       </c>
@@ -10626,7 +10634,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>36</v>
       </c>
@@ -10637,7 +10645,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>36</v>
       </c>
@@ -10648,7 +10656,7 @@
         <v>1398.75</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>15</v>
       </c>
@@ -10659,7 +10667,7 @@
         <v>2477.5</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>15</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>1471.25</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>15</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>1342.5</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>15</v>
       </c>
@@ -10692,7 +10700,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>15</v>
       </c>
@@ -10703,7 +10711,7 @@
         <v>721.25</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>15</v>
       </c>
@@ -10714,7 +10722,7 @@
         <v>1142.5</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>15</v>
       </c>
@@ -10725,7 +10733,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +10744,7 @@
         <v>1001.6666666666666</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>15</v>
       </c>
@@ -10747,7 +10755,7 @@
         <v>492.5</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>15</v>
       </c>
@@ -10758,7 +10766,7 @@
         <v>1022.5</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>15</v>
       </c>
@@ -10769,7 +10777,7 @@
         <v>1203.75</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>15</v>
       </c>
@@ -10780,7 +10788,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>15</v>
       </c>
@@ -10791,7 +10799,7 @@
         <v>427.5</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>37</v>
       </c>
@@ -10802,7 +10810,7 @@
         <v>1632.5</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>37</v>
       </c>
@@ -10813,7 +10821,7 @@
         <v>958.75</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>13</v>
       </c>
@@ -10824,7 +10832,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>13</v>
       </c>
@@ -10835,7 +10843,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>13</v>
       </c>
@@ -10846,7 +10854,7 @@
         <v>853.75</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>13</v>
       </c>
@@ -10857,7 +10865,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>13</v>
       </c>
@@ -10868,7 +10876,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>13</v>
       </c>
@@ -10879,7 +10887,7 @@
         <v>1287.5</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>13</v>
       </c>
@@ -10890,7 +10898,7 @@
         <v>851.25</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>13</v>
       </c>
@@ -10901,7 +10909,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>13</v>
       </c>
@@ -10912,7 +10920,7 @@
         <v>856.25</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>13</v>
       </c>
@@ -10923,7 +10931,7 @@
         <v>766.25</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>13</v>
       </c>
@@ -10934,7 +10942,7 @@
         <v>853.75</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>13</v>
       </c>
@@ -10945,7 +10953,7 @@
         <v>688.75</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>13</v>
       </c>
@@ -10956,7 +10964,7 @@
         <v>492.5</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>38</v>
       </c>
@@ -10967,7 +10975,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>38</v>
       </c>
@@ -10978,7 +10986,7 @@
         <v>822.5</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>17</v>
       </c>
@@ -10989,7 +10997,7 @@
         <v>1382.5</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>17</v>
       </c>
@@ -11000,7 +11008,7 @@
         <v>926.25</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>17</v>
       </c>
@@ -11011,7 +11019,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>17</v>
       </c>
@@ -11022,7 +11030,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>17</v>
       </c>
@@ -11033,7 +11041,7 @@
         <v>571.25</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>17</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>887.5</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>17</v>
       </c>
@@ -11055,7 +11063,7 @@
         <v>866.25</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>17</v>
       </c>
@@ -11066,7 +11074,7 @@
         <v>606.25</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>17</v>
       </c>
@@ -11077,7 +11085,7 @@
         <v>743.75</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>17</v>
       </c>
@@ -11088,7 +11096,7 @@
         <v>732.5</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>17</v>
       </c>
@@ -11099,7 +11107,7 @@
         <v>1001.25</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>17</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>17</v>
       </c>
@@ -11121,7 +11129,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>39</v>
       </c>
@@ -11132,7 +11140,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>39</v>
       </c>
@@ -11143,7 +11151,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>25</v>
       </c>
@@ -11154,7 +11162,7 @@
         <v>1622.5</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>25</v>
       </c>
@@ -11165,7 +11173,7 @@
         <v>931.25</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>25</v>
       </c>
@@ -11176,7 +11184,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>25</v>
       </c>
@@ -11187,7 +11195,7 @@
         <v>632.5</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>25</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>25</v>
       </c>
@@ -11209,7 +11217,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>25</v>
       </c>
@@ -11220,7 +11228,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>40</v>
       </c>
@@ -11231,7 +11239,7 @@
         <v>1332.5</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>40</v>
       </c>
@@ -11242,7 +11250,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>27</v>
       </c>
@@ -11253,7 +11261,7 @@
         <v>1137.5</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>27</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>27</v>
       </c>
@@ -11275,7 +11283,7 @@
         <v>957.5</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>27</v>
       </c>
@@ -11286,7 +11294,7 @@
         <v>652.5</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>27</v>
       </c>
@@ -11297,7 +11305,7 @@
         <v>968.75</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>27</v>
       </c>
@@ -11308,7 +11316,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>27</v>
       </c>
@@ -11319,7 +11327,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>41</v>
       </c>
@@ -11330,7 +11338,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>41</v>
       </c>
@@ -11341,7 +11349,7 @@
         <v>1302.5</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>29</v>
       </c>
@@ -11352,7 +11360,7 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>29</v>
       </c>
@@ -11363,7 +11371,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>29</v>
       </c>
@@ -11374,7 +11382,7 @@
         <v>867.5</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>29</v>
       </c>
@@ -11385,7 +11393,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>29</v>
       </c>
@@ -11396,7 +11404,7 @@
         <v>873.75</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>29</v>
       </c>
@@ -11407,7 +11415,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>29</v>
       </c>
@@ -11561,7 +11569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>6</v>
       </c>
@@ -11573,7 +11581,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>6</v>
       </c>
@@ -11585,7 +11593,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>6</v>
       </c>
@@ -11597,7 +11605,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>6</v>
       </c>
@@ -11609,7 +11617,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>6</v>
       </c>
@@ -11621,7 +11629,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>6</v>
       </c>
@@ -11633,7 +11641,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>6</v>
       </c>
@@ -11645,7 +11653,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>6</v>
       </c>
@@ -11657,7 +11665,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>6</v>
       </c>
@@ -11669,7 +11677,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>6</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>6</v>
       </c>
@@ -11693,7 +11701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>6</v>
       </c>
@@ -11705,7 +11713,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>6</v>
       </c>
@@ -11717,7 +11725,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>6</v>
       </c>
@@ -11729,7 +11737,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>6</v>
       </c>
@@ -11741,7 +11749,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>6</v>
       </c>
@@ -11753,7 +11761,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>6</v>
       </c>
@@ -11765,7 +11773,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>6</v>
       </c>
@@ -11777,7 +11785,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>6</v>
       </c>
@@ -11789,7 +11797,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>6</v>
       </c>
@@ -11801,7 +11809,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>6</v>
       </c>
@@ -11813,7 +11821,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>6</v>
       </c>
@@ -11825,7 +11833,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>6</v>
       </c>
@@ -11837,7 +11845,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>6</v>
       </c>
@@ -11849,7 +11857,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>6</v>
       </c>
@@ -11861,7 +11869,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>6</v>
       </c>
@@ -11873,7 +11881,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>6</v>
       </c>
@@ -11885,7 +11893,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>6</v>
       </c>
@@ -11897,7 +11905,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>6</v>
       </c>
@@ -11909,7 +11917,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>6</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>6</v>
       </c>
@@ -11933,7 +11941,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>6</v>
       </c>
@@ -11945,7 +11953,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>6</v>
       </c>
@@ -11957,7 +11965,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>6</v>
       </c>
@@ -11969,7 +11977,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>6</v>
       </c>
@@ -11981,7 +11989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>6</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>6</v>
       </c>
@@ -12005,7 +12013,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>6</v>
       </c>
@@ -12017,7 +12025,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>6</v>
       </c>
@@ -12029,7 +12037,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>6</v>
       </c>
@@ -12041,7 +12049,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>6</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>6</v>
       </c>
@@ -12065,7 +12073,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>6</v>
       </c>
@@ -12077,7 +12085,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>6</v>
       </c>
@@ -12089,7 +12097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>6</v>
       </c>
@@ -12101,7 +12109,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>6</v>
       </c>
@@ -12113,7 +12121,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>6</v>
       </c>
@@ -12125,7 +12133,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>6</v>
       </c>
@@ -12137,7 +12145,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>6</v>
       </c>
@@ -12149,7 +12157,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>6</v>
       </c>
@@ -12161,7 +12169,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>6</v>
       </c>
@@ -12173,7 +12181,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>6</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>6</v>
       </c>
@@ -12197,7 +12205,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>6</v>
       </c>
@@ -12209,7 +12217,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>6</v>
       </c>
@@ -12221,7 +12229,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>6</v>
       </c>
@@ -12233,7 +12241,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>6</v>
       </c>
@@ -12245,7 +12253,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>6</v>
       </c>
@@ -12257,7 +12265,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>6</v>
       </c>
@@ -12269,7 +12277,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>6</v>
       </c>
@@ -12281,7 +12289,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>6</v>
       </c>
@@ -12293,7 +12301,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>6</v>
       </c>
@@ -12305,7 +12313,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>6</v>
       </c>
@@ -12317,7 +12325,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>6</v>
       </c>
@@ -12329,7 +12337,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>6</v>
       </c>
@@ -12341,7 +12349,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>6</v>
       </c>
@@ -12353,7 +12361,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>6</v>
       </c>
@@ -12365,7 +12373,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>6</v>
       </c>
@@ -12377,7 +12385,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>6</v>
       </c>
@@ -12389,7 +12397,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>6</v>
       </c>
@@ -12401,7 +12409,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>6</v>
       </c>
@@ -12413,7 +12421,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>42</v>
       </c>
@@ -12425,7 +12433,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>44</v>
       </c>
@@ -12436,7 +12444,7 @@
         <v>5.024</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>44</v>
       </c>
@@ -12447,7 +12455,7 @@
         <v>4.976</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>43</v>
       </c>
@@ -12458,7 +12466,7 @@
         <v>5.5360000000000005</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>43</v>
       </c>
@@ -12469,7 +12477,7 @@
         <v>4.2880000000000003</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>43</v>
       </c>
@@ -12480,7 +12488,7 @@
         <v>4.4480000000000004</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>43</v>
       </c>
@@ -12491,7 +12499,7 @@
         <v>4.5575093181319897</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>43</v>
       </c>
@@ -12502,7 +12510,7 @@
         <v>4.3936493936052923</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>43</v>
       </c>
@@ -12513,7 +12521,7 @@
         <v>4.5945518453427061</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>43</v>
       </c>
@@ -12524,7 +12532,7 @@
         <v>4.5026355913744283</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>43</v>
       </c>
@@ -12535,7 +12543,7 @@
         <v>4.1903152421189471</v>
       </c>
     </row>
-    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>43</v>
       </c>
@@ -12546,7 +12554,7 @@
         <v>4.7856552923277542</v>
       </c>
     </row>
-    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>43</v>
       </c>
@@ -12557,7 +12565,7 @@
         <v>5.2027072758037232</v>
       </c>
     </row>
-    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>44</v>
       </c>
@@ -12568,7 +12576,7 @@
         <v>2.0426666666666664</v>
       </c>
     </row>
-    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>44</v>
       </c>
@@ -12579,7 +12587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>43</v>
       </c>
@@ -12590,7 +12598,7 @@
         <v>2.2880000000000003</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>43</v>
       </c>
@@ -12601,7 +12609,7 @@
         <v>1.2640000000000002</v>
       </c>
     </row>
-    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>43</v>
       </c>
@@ -12612,7 +12620,7 @@
         <v>1.776</v>
       </c>
     </row>
-    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>43</v>
       </c>
@@ -12623,7 +12631,7 @@
         <v>2.0805283434232251</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>43</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>2.0246805722398169</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>43</v>
       </c>
@@ -12645,7 +12653,7 @@
         <v>1.7001217218103353</v>
       </c>
     </row>
-    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>43</v>
       </c>
@@ -12656,7 +12664,7 @@
         <v>1.6267123287671235</v>
       </c>
     </row>
-    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>43</v>
       </c>
@@ -12667,7 +12675,7 @@
         <v>1.4114726027397262</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>43</v>
       </c>
@@ -12678,8 +12686,1301 @@
         <v>1.7217972201271414</v>
       </c>
     </row>
+    <row r="1023" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>37529</v>
+      </c>
+      <c r="H1023">
+        <v>10.158526667</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>37543</v>
+      </c>
+      <c r="H1024">
+        <v>11.528213333</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>37568</v>
+      </c>
+      <c r="H1025">
+        <v>10.765893333000001</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>37571</v>
+      </c>
+      <c r="H1026">
+        <v>9.8784666670000014</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>37597</v>
+      </c>
+      <c r="H1027">
+        <v>10.042626667</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>37613</v>
+      </c>
+      <c r="H1028">
+        <v>8.0389946670000008</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>37625</v>
+      </c>
+      <c r="H1029">
+        <v>9.0610733329999995</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>37655</v>
+      </c>
+      <c r="H1030">
+        <v>7.7592570590000003</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>37655</v>
+      </c>
+      <c r="H1031">
+        <v>8.8927990159999997</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>37683</v>
+      </c>
+      <c r="H1032">
+        <v>10.519236172999999</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>37683</v>
+      </c>
+      <c r="H1033">
+        <v>9.9999141839999997</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>37697</v>
+      </c>
+      <c r="H1034">
+        <v>8.7590904320000007</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>37697</v>
+      </c>
+      <c r="H1035">
+        <v>9.0246885369999994</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H1036">
+        <v>10.185732976000001</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H1037">
+        <v>10.349250925</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>37739</v>
+      </c>
+      <c r="H1038">
+        <v>9.4819023899999983</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>37739</v>
+      </c>
+      <c r="H1039">
+        <v>12.693186507</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>37739</v>
+      </c>
+      <c r="H1040">
+        <v>11.802041239999999</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>37774</v>
+      </c>
+      <c r="H1041">
+        <v>12.345058429</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>37774</v>
+      </c>
+      <c r="H1042">
+        <v>11.260603167999999</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>37774</v>
+      </c>
+      <c r="H1043">
+        <v>11.565238813000001</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>37774</v>
+      </c>
+      <c r="H1044">
+        <v>11.841680372999999</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>37865</v>
+      </c>
+      <c r="H1045">
+        <v>11.49306</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>37865</v>
+      </c>
+      <c r="H1046">
+        <v>10.436666667000001</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>37878</v>
+      </c>
+      <c r="H1047">
+        <v>11.461737280000001</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>37878</v>
+      </c>
+      <c r="H1048">
+        <v>11.398412151999999</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>37894</v>
+      </c>
+      <c r="H1049">
+        <v>9.6591508879999992</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>37894</v>
+      </c>
+      <c r="H1050">
+        <v>9.3971076839999998</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>37905</v>
+      </c>
+      <c r="H1051">
+        <v>11.877323464</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>37905</v>
+      </c>
+      <c r="H1052">
+        <v>11.977043816</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>37934</v>
+      </c>
+      <c r="H1053">
+        <v>8.7657742800000005</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>37934</v>
+      </c>
+      <c r="H1054">
+        <v>9.2796309160000003</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>37934</v>
+      </c>
+      <c r="H1055">
+        <v>9.8470980039999993</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>37934</v>
+      </c>
+      <c r="H1056">
+        <v>9.7176370240000001</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>37962</v>
+      </c>
+      <c r="H1057">
+        <v>9.2472517720000003</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>37962</v>
+      </c>
+      <c r="H1058">
+        <v>9.3706368359999992</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>37978</v>
+      </c>
+      <c r="H1059">
+        <v>7.9898587079999999</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>37978</v>
+      </c>
+      <c r="H1060">
+        <v>7.8042676320000002</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>37990</v>
+      </c>
+      <c r="H1061">
+        <v>7.685580528</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>37990</v>
+      </c>
+      <c r="H1062">
+        <v>8.2049893360000006</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>38020</v>
+      </c>
+      <c r="H1063">
+        <v>8.3168334040000005</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>38020</v>
+      </c>
+      <c r="H1064">
+        <v>7.9220765760000003</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>38020</v>
+      </c>
+      <c r="H1065">
+        <v>9.317481184</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>38020</v>
+      </c>
+      <c r="H1066">
+        <v>8.9915552559999998</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>38033</v>
+      </c>
+      <c r="H1067">
+        <v>12.919999999999998</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>38033</v>
+      </c>
+      <c r="H1068">
+        <v>11.89296</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>38048</v>
+      </c>
+      <c r="H1069">
+        <v>9.8687142320000003</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>38048</v>
+      </c>
+      <c r="H1070">
+        <v>10.505497894000001</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>38054</v>
+      </c>
+      <c r="H1071">
+        <v>8.9550000000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>38062</v>
+      </c>
+      <c r="H1072">
+        <v>8.4515235719999993</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>38062</v>
+      </c>
+      <c r="H1073">
+        <v>8.8712014119999996</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>38076</v>
+      </c>
+      <c r="H1074">
+        <v>10.183444976000001</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>38076</v>
+      </c>
+      <c r="H1075">
+        <v>10.401271196</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>38104</v>
+      </c>
+      <c r="H1076">
+        <v>10.589095142</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>38104</v>
+      </c>
+      <c r="H1077">
+        <v>12.77012236</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>38104</v>
+      </c>
+      <c r="H1078">
+        <v>10.798525615999999</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>38104</v>
+      </c>
+      <c r="H1079">
+        <v>11.915667559999999</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>38138</v>
+      </c>
+      <c r="H1080">
+        <v>12.834385544</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>38138</v>
+      </c>
+      <c r="H1081">
+        <v>11.656726863999999</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>38138</v>
+      </c>
+      <c r="H1082">
+        <v>12.883279416000001</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>38138</v>
+      </c>
+      <c r="H1083">
+        <v>11.738394624000001</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1084" s="2">
+        <v>42117</v>
+      </c>
+      <c r="H1084">
+        <v>8.0237173233032237</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1085" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H1085">
+        <v>8.0308457679748528</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1086" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H1086">
+        <v>7.8250597076416017</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1087" s="2">
+        <v>42222</v>
+      </c>
+      <c r="H1087">
+        <v>10.364010408189561</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1088" s="2">
+        <v>42222</v>
+      </c>
+      <c r="H1088">
+        <v>10.091623481326632</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>42222</v>
+      </c>
+      <c r="H1089">
+        <v>9.2763714870876726</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1090" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1090">
+        <v>8.7493476782904729</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1091" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1091">
+        <v>8.6741036059061685</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1092" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1092">
+        <v>7.1880298216078025</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1093" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1093">
+        <v>8.6099397074381514</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1094" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1094">
+        <v>8.9611908963521323</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1095">
+        <v>8.4257041308085121</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1096">
+        <v>9.7219766667683913</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1097" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1097">
+        <v>8.6742239324781636</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1098">
+        <v>9.4285805231730144</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1099">
+        <v>8.5229617996215818</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1100">
+        <v>9.216003795623779</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1101" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1101">
+        <v>8.7214319744110114</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1102">
+        <v>6.372758277893066</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1103">
+        <v>6.6105739622116086</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1104">
+        <v>6.1550795021057123</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>42117</v>
+      </c>
+      <c r="H1105">
+        <v>10.1972813911438</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>42117</v>
+      </c>
+      <c r="H1106">
+        <v>9.7865177898406976</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>42131</v>
+      </c>
+      <c r="H1107">
+        <v>8.6771821537017821</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>42131</v>
+      </c>
+      <c r="H1108">
+        <v>8.2476467933654796</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>42131</v>
+      </c>
+      <c r="H1109">
+        <v>8.339748304367065</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1110">
+        <v>7.2928796297709146</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1111">
+        <v>7.3831767590840665</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1112">
+        <v>6.4982067775726318</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1113">
+        <v>7.2590745337804163</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1114">
+        <v>7.4295040855407715</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1115">
+        <v>7.1852092730204262</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1116">
+        <v>9.9818718789418543</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1117">
+        <v>9.7518896853129071</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>42508</v>
+      </c>
+      <c r="H1118">
+        <v>9.2323894901275629</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1119">
+        <v>8.6881767654418951</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1120">
+        <v>7.7808034439086926</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1121">
+        <v>8.2842345695495609</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1122">
+        <v>6.2587330722808838</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1123">
+        <v>6.6451616312662765</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1124">
+        <v>6.6240729322433474</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H1125">
+        <v>7.9054230702718096</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H1126">
+        <v>9.3846823933919268</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H1127">
+        <v>9.3585172907511396</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1128">
+        <v>7.4712694931030281</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1129">
+        <v>8.3376527057223857</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H1130">
+        <v>7.097994194030762</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1131">
+        <v>7.4332128734588627</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1132">
+        <v>7.8311644725799558</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>42423</v>
+      </c>
+      <c r="H1133">
+        <v>6.9099906374613438</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1134">
+        <v>8.8467370313008615</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1135">
+        <v>9.2409766006469738</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>42648</v>
+      </c>
+      <c r="H1136">
+        <v>8.8509963124593103</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1137">
+        <v>7.5040072479248048</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1138">
+        <v>7.5049043553670245</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>42746</v>
+      </c>
+      <c r="H1139">
+        <v>6.3148431002298988</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1101" xr:uid="{2D784183-B080-4DD4-9FD4-E2E29486E4AB}"/>
+  <autoFilter ref="A1:H1139" xr:uid="{22A3E8BC-2F0D-45E8-A8DC-17BADFB35F0C}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
